--- a/4º/Notas Cuarto.xlsx
+++ b/4º/Notas Cuarto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismael/Documents/GitHub/Ingenieria-Informatica/4º/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D339B-7987-D741-8668-EE3D95837D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB819DAB-A0A8-7F42-8308-0634A36BDC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17200" yWindow="1040" windowWidth="16840" windowHeight="21060" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
   <dimension ref="A4:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +702,9 @@
       <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -711,7 +713,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="2">
         <f>B5*0.033+C5*0.033+D5*0.033+E5*0.033+F5*0.07+G5*0.033+H5*0.033+I5*0.065+J5*0.065</f>
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -726,7 +728,7 @@
       </c>
       <c r="Q5" s="4">
         <f>P5+N5+K5</f>
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">

--- a/4º/Notas Cuarto.xlsx
+++ b/4º/Notas Cuarto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismael/Documents/GitHub/Ingenieria-Informatica/4º/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB819DAB-A0A8-7F42-8308-0634A36BDC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF63C4A-0AE6-0745-A885-ECFA0AA2021C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>SSR</t>
   </si>
@@ -144,6 +144,30 @@
   </si>
   <si>
     <t>TR4</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>Teoria 1</t>
+  </si>
+  <si>
+    <t>Teoria 2</t>
+  </si>
+  <si>
+    <t>Practica 1</t>
+  </si>
+  <si>
+    <t>Practica 2</t>
+  </si>
+  <si>
+    <t>Practica 3</t>
+  </si>
+  <si>
+    <t>Practica 4</t>
+  </si>
+  <si>
+    <t>Nota Trabajo</t>
   </si>
 </sst>
 </file>
@@ -172,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +278,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -285,6 +321,8 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1D963E-269C-B14C-826F-3EFE50BA262F}">
-  <dimension ref="A4:Q17"/>
+  <dimension ref="A4:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,6 +675,8 @@
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="13.5" customWidth="1"/>
@@ -842,13 +882,13 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="e">
         <f>(C14+D14+A20)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="1" t="e">
         <f>B14*0.2+G14*0.7+F14*0.1</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -871,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
@@ -885,6 +925,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
+        <f>(B20+C20)/2</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
+        <f>(E20+F20+G20+H20)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="L20" s="15">
+        <f>D20*0.4+I20*0.5+J20*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4º/Notas Cuarto.xlsx
+++ b/4º/Notas Cuarto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismael/Documents/GitHub/Ingenieria-Informatica/4º/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF63C4A-0AE6-0745-A885-ECFA0AA2021C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682FC2CD-891B-774B-91DC-07584DA9D267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>SSR</t>
   </si>
@@ -144,30 +144,6 @@
   </si>
   <si>
     <t>TR4</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>Teoria 1</t>
-  </si>
-  <si>
-    <t>Teoria 2</t>
-  </si>
-  <si>
-    <t>Practica 1</t>
-  </si>
-  <si>
-    <t>Practica 2</t>
-  </si>
-  <si>
-    <t>Practica 3</t>
-  </si>
-  <si>
-    <t>Practica 4</t>
-  </si>
-  <si>
-    <t>Nota Trabajo</t>
   </si>
 </sst>
 </file>
@@ -196,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,18 +254,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -321,8 +285,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1D963E-269C-B14C-826F-3EFE50BA262F}">
-  <dimension ref="A4:Q20"/>
+  <dimension ref="A4:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,21 +707,27 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.5</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2">
         <f>B5*0.033+C5*0.033+D5*0.033+E5*0.033+F5*0.07+G5*0.033+H5*0.033+I5*0.065+J5*0.065</f>
-        <v>0.99</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>1.585</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="2">
-        <f>L5*0.15+M5*0.15</f>
-        <v>0</v>
+        <f>L5*0.3</f>
+        <v>2.6640000000000001</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="2">
@@ -768,7 +736,7 @@
       </c>
       <c r="Q5" s="4">
         <f>P5+N5+K5</f>
-        <v>0.99</v>
+        <v>4.2490000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -883,12 +851,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="e">
-        <f>(C14+D14+A20)/3</f>
-        <v>#VALUE!</v>
+        <f>(C14+D14+#REF!)/3</f>
+        <v>#REF!</v>
       </c>
       <c r="I14" s="1" t="e">
         <f>B14*0.2+G14*0.7+F14*0.1</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -911,7 +879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
@@ -925,62 +893,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15">
-        <f>(B20+C20)/2</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15">
-        <f>(E20+F20+G20+H20)/4</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="L20" s="15">
-        <f>D20*0.4+I20*0.5+J20*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4º/Notas Cuarto.xlsx
+++ b/4º/Notas Cuarto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismael/Documents/GitHub/Ingenieria-Informatica/4º/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Ingenieria-Informatica\4º\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682FC2CD-891B-774B-91DC-07584DA9D267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D03DDB8-7E9E-4BB3-B4F9-0B3655127E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
+    <workbookView xWindow="2460" yWindow="2355" windowWidth="21600" windowHeight="11295" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>SSR</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Sem 4.2</t>
   </si>
   <si>
-    <t>Sem 5.1</t>
-  </si>
-  <si>
-    <t>Sem 5.2</t>
-  </si>
-  <si>
     <t>Nota Seminarios</t>
   </si>
   <si>
@@ -144,6 +138,9 @@
   </si>
   <si>
     <t>TR4</t>
+  </si>
+  <si>
+    <t>Mapa conceptual</t>
   </si>
 </sst>
 </file>
@@ -629,22 +626,22 @@
   <dimension ref="A4:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -667,34 +664,32 @@
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,12 +709,14 @@
         <v>8.5</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2">
-        <f>B5*0.033+C5*0.033+D5*0.033+E5*0.033+F5*0.07+G5*0.033+H5*0.033+I5*0.065+J5*0.065</f>
-        <v>1.585</v>
+        <f>B5*0.04+C5*0.04+D5*0.04+E5*0.04+F5*0.083+G5*0.04+H5*0.04+I5*0.077</f>
+        <v>2.1055000000000001</v>
       </c>
       <c r="L5" s="1">
         <v>8.8800000000000008</v>
@@ -736,38 +733,38 @@
       </c>
       <c r="Q5" s="4">
         <f>P5+N5+K5</f>
-        <v>4.2490000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>4.7695000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="J7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -781,29 +778,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -818,32 +815,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -859,29 +856,29 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>

--- a/4º/Notas Cuarto.xlsx
+++ b/4º/Notas Cuarto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Ingenieria-Informatica\4º\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D03DDB8-7E9E-4BB3-B4F9-0B3655127E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89642A5F-C983-4FB9-8CFF-94882BC9C35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="2355" windowWidth="21600" windowHeight="11295" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A4:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/4º/Notas Cuarto.xlsx
+++ b/4º/Notas Cuarto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Ingenieria-Informatica\4º\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89642A5F-C983-4FB9-8CFF-94882BC9C35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31F175D-E512-4283-AED4-89573DE072F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2355" windowWidth="21600" windowHeight="11295" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>SSR</t>
   </si>
@@ -86,9 +86,6 @@
     <t>SRE</t>
   </si>
   <si>
-    <t>Defensa</t>
-  </si>
-  <si>
     <t>Entrega 1</t>
   </si>
   <si>
@@ -141,6 +138,15 @@
   </si>
   <si>
     <t>Mapa conceptual</t>
+  </si>
+  <si>
+    <t>Conceptos Seguridad</t>
+  </si>
+  <si>
+    <t>Informe 1</t>
+  </si>
+  <si>
+    <t>Informe 2</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -282,6 +288,9 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,7 +635,7 @@
   <dimension ref="A4:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -664,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="7" t="s">
@@ -712,11 +721,12 @@
       <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="2">
-        <f>B5*0.04+C5*0.04+D5*0.04+E5*0.04+F5*0.083+G5*0.04+H5*0.04+I5*0.077</f>
-        <v>2.1055000000000001</v>
+        <v>6.61</v>
       </c>
       <c r="L5" s="1">
         <v>8.8800000000000008</v>
@@ -732,31 +742,31 @@
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <f>P5+N5+K5</f>
-        <v>4.7695000000000007</v>
+        <f>P5+N5+(K5*0.4)</f>
+        <v>5.3079999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>16</v>
+    <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>13</v>
@@ -766,16 +776,22 @@
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.48</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8">
-        <f>B8*0.05+C8*0.05+D8*0.1+E8*0.15+F8*0.35+G8*0.25+H8*0.05</f>
-        <v>0</v>
+        <f>B8+C8+D8</f>
+        <v>1.37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -783,16 +799,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>13</v>
@@ -800,39 +816,41 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10">
+        <v>8</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10">
         <f>(C11+D11+E11)/3</f>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H11" s="10">
         <f>B11*0.25+F11*0.7</f>
-        <v>0</v>
+        <v>1.8666666666666665</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>13</v>
@@ -840,37 +858,39 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>8.0500000000000007</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="e">
-        <f>(C14+D14+#REF!)/3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I14" s="1" t="e">
+      <c r="G14" s="1">
+        <f>(C14+D14+E14)/3</f>
+        <v>2.6833333333333336</v>
+      </c>
+      <c r="I14" s="1">
         <f>B14*0.2+G14*0.7+F14*0.1</f>
-        <v>#REF!</v>
+        <v>1.8783333333333334</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>13</v>
@@ -878,16 +898,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="13">
+        <v>6.9</v>
+      </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="13">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13">
+        <v>8.5</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="H17" s="13">
         <f>B17*0.125+C17*0.125+D17*0.25+E17*0.25+F17*0.25</f>
-        <v>0</v>
+        <v>5.2374999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/4º/Notas Cuarto.xlsx
+++ b/4º/Notas Cuarto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Ingenieria-Informatica\4º\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31F175D-E512-4283-AED4-89573DE072F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4689CCB-4947-4EAC-B573-EFF3FCDA94AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
   </bookViews>
@@ -635,7 +635,7 @@
   <dimension ref="A4:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,15 +822,17 @@
       <c r="C11" s="10">
         <v>8</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10">
+        <v>4.45</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10">
         <f>(C11+D11+E11)/3</f>
-        <v>2.6666666666666665</v>
+        <v>4.1499999999999995</v>
       </c>
       <c r="H11" s="10">
         <f>B11*0.25+F11*0.7</f>
-        <v>1.8666666666666665</v>
+        <v>2.9049999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -864,16 +866,18 @@
       <c r="C14" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>5.5</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
         <f>(C14+D14+E14)/3</f>
-        <v>2.6833333333333336</v>
+        <v>4.5166666666666666</v>
       </c>
       <c r="I14" s="1">
         <f>B14*0.2+G14*0.7+F14*0.1</f>
-        <v>1.8783333333333334</v>
+        <v>3.1616666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -903,7 +907,9 @@
       <c r="B17" s="13">
         <v>6.9</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13">
+        <v>6.8</v>
+      </c>
       <c r="D17" s="13">
         <v>9</v>
       </c>
@@ -913,7 +919,7 @@
       <c r="F17" s="13"/>
       <c r="H17" s="13">
         <f>B17*0.125+C17*0.125+D17*0.25+E17*0.25+F17*0.25</f>
-        <v>5.2374999999999998</v>
+        <v>6.0875000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/4º/Notas Cuarto.xlsx
+++ b/4º/Notas Cuarto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Ingenieria-Informatica\4º\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4689CCB-4947-4EAC-B573-EFF3FCDA94AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3BDBE0-7435-45C8-9D8B-66403BAD45EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C6909D8-F456-DC46-9AA4-5CA3DDF5E1C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>SSR</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Informe 2</t>
+  </si>
+  <si>
+    <t>Nota media Final</t>
   </si>
 </sst>
 </file>
@@ -632,16 +635,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1D963E-269C-B14C-826F-3EFE50BA262F}">
-  <dimension ref="A4:Q17"/>
+  <dimension ref="A4:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
@@ -776,22 +779,15 @@
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.39</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.48</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8">
-        <f>B8+C8+D8</f>
-        <v>1.37</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -818,21 +814,25 @@
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10">
+        <v>8.17</v>
+      </c>
       <c r="C11" s="10">
         <v>8</v>
       </c>
       <c r="D11" s="10">
         <v>4.45</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10">
+        <v>9.1</v>
+      </c>
       <c r="F11" s="10">
         <f>(C11+D11+E11)/3</f>
-        <v>4.1499999999999995</v>
+        <v>7.1833333333333327</v>
       </c>
       <c r="H11" s="10">
         <f>B11*0.25+F11*0.7</f>
-        <v>2.9049999999999994</v>
+        <v>7.0708333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -862,22 +862,26 @@
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>6.5</v>
+      </c>
       <c r="C14" s="1">
         <v>8.0500000000000007</v>
       </c>
       <c r="D14" s="1">
         <v>5.5</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
         <f>(C14+D14+E14)/3</f>
-        <v>4.5166666666666666</v>
+        <v>6.8500000000000005</v>
       </c>
       <c r="I14" s="1">
-        <f>B14*0.2+G14*0.7+F14*0.1</f>
-        <v>3.1616666666666666</v>
+        <f>B14*0.2+G14*0.7+0.25</f>
+        <v>6.3449999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -916,10 +920,21 @@
       <c r="E17" s="13">
         <v>8.5</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="13">
+        <v>7.5</v>
+      </c>
       <c r="H17" s="13">
         <f>B17*0.125+C17*0.125+D17*0.25+E17*0.25+F17*0.25</f>
-        <v>6.0875000000000004</v>
+        <v>7.9625000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23">
+        <f>(Q5+J8+H11+I14+H17)/5</f>
+        <v>6.8992666666666667</v>
       </c>
     </row>
   </sheetData>
